--- a/Income/CNC_inc.xlsx
+++ b/Income/CNC_inc.xlsx
@@ -2292,16 +2292,16 @@
         <v>0.0417</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>0.0094</v>
+        <v>0.0099</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>0.0204</v>
+        <v>0.0209</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>-0.0104</v>
+        <v>-0.0098</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0.0094</v>
+        <v>0.0101</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0.0108</v>
@@ -3974,16 +3974,16 @@
         <v>0.0495</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>0.0179</v>
+        <v>0.0184</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>0.0292</v>
+        <v>0.0297</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>-0.0015</v>
+        <v>-0.0009</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>0.0191</v>
+        <v>0.0199</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>0.0207</v>
